--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il6-Il6ra.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H2">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I2">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J2">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N2">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O2">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P2">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q2">
-        <v>7.451996649264999</v>
+        <v>28.12628347532734</v>
       </c>
       <c r="R2">
-        <v>67.067969843385</v>
+        <v>253.136551277946</v>
       </c>
       <c r="S2">
-        <v>0.0009082919286842469</v>
+        <v>0.003542285864887673</v>
       </c>
       <c r="T2">
-        <v>0.0009082919286842469</v>
+        <v>0.003542285864887674</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H3">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I3">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J3">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>3.660776</v>
       </c>
       <c r="O3">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P3">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q3">
-        <v>7.093042701304</v>
+        <v>14.78457712903733</v>
       </c>
       <c r="R3">
-        <v>63.837384311736</v>
+        <v>133.061194161336</v>
       </c>
       <c r="S3">
-        <v>0.000864540570619093</v>
+        <v>0.001862002088845868</v>
       </c>
       <c r="T3">
-        <v>0.000864540570619093</v>
+        <v>0.001862002088845868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H4">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I4">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J4">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N4">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O4">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P4">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q4">
-        <v>110.941749188417</v>
+        <v>271.2131981130014</v>
       </c>
       <c r="R4">
-        <v>998.475742695753</v>
+        <v>2440.918783017012</v>
       </c>
       <c r="S4">
-        <v>0.01352221425809284</v>
+        <v>0.03415718535616032</v>
       </c>
       <c r="T4">
-        <v>0.01352221425809284</v>
+        <v>0.03415718535616033</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H5">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I5">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J5">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N5">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O5">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P5">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q5">
-        <v>0.7672425324199998</v>
+        <v>2.103161078727667</v>
       </c>
       <c r="R5">
-        <v>6.90518279178</v>
+        <v>18.928449708549</v>
       </c>
       <c r="S5">
-        <v>9.351590350071907E-05</v>
+        <v>0.0002648767217074427</v>
       </c>
       <c r="T5">
-        <v>9.351590350071908E-05</v>
+        <v>0.0002648767217074428</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H6">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I6">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J6">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N6">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O6">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P6">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q6">
-        <v>201.46898002525</v>
+        <v>533.4882191050714</v>
       </c>
       <c r="R6">
-        <v>1813.22082022725</v>
+        <v>4801.393971945642</v>
       </c>
       <c r="S6">
-        <v>0.02455619038090029</v>
+        <v>0.06718867707060251</v>
       </c>
       <c r="T6">
-        <v>0.02455619038090029</v>
+        <v>0.06718867707060253</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.812736999999999</v>
+        <v>12.115937</v>
       </c>
       <c r="H7">
-        <v>17.438211</v>
+        <v>36.347811</v>
       </c>
       <c r="I7">
-        <v>0.0610307927877553</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="J7">
-        <v>0.06103079278775531</v>
+        <v>0.1240887170388613</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N7">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O7">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P7">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q7">
-        <v>172.998451897257</v>
+        <v>135.5676705509197</v>
       </c>
       <c r="R7">
-        <v>1556.986067075313</v>
+        <v>1220.109034958277</v>
       </c>
       <c r="S7">
-        <v>0.02108603974595811</v>
+        <v>0.01707368993665747</v>
       </c>
       <c r="T7">
-        <v>0.02108603974595812</v>
+        <v>0.01707368993665747</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>210.479298</v>
       </c>
       <c r="I8">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J8">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N8">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O8">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P8">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q8">
-        <v>89.94563854260335</v>
+        <v>162.8708920390254</v>
       </c>
       <c r="R8">
-        <v>809.51074688343</v>
+        <v>1465.838028351228</v>
       </c>
       <c r="S8">
-        <v>0.01096308833105221</v>
+        <v>0.02051231756863929</v>
       </c>
       <c r="T8">
-        <v>0.01096308833105221</v>
+        <v>0.02051231756863929</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>210.479298</v>
       </c>
       <c r="I9">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J9">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>3.660776</v>
       </c>
       <c r="O9">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P9">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q9">
-        <v>85.61306251280536</v>
+        <v>85.61306251280533</v>
       </c>
       <c r="R9">
-        <v>770.517562615248</v>
+        <v>770.5175626152479</v>
       </c>
       <c r="S9">
-        <v>0.01043500921031556</v>
+        <v>0.01078229697339441</v>
       </c>
       <c r="T9">
-        <v>0.01043500921031556</v>
+        <v>0.01078229697339441</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>210.479298</v>
       </c>
       <c r="I10">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J10">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N10">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O10">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P10">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q10">
-        <v>1339.067493108673</v>
+        <v>1570.514481522958</v>
       </c>
       <c r="R10">
-        <v>12051.60743797805</v>
+        <v>14134.63033370662</v>
       </c>
       <c r="S10">
-        <v>0.1632131968381947</v>
+        <v>0.1977940403459373</v>
       </c>
       <c r="T10">
-        <v>0.1632131968381947</v>
+        <v>0.1977940403459374</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>210.479298</v>
       </c>
       <c r="I11">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J11">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N11">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O11">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P11">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q11">
-        <v>9.260621380226667</v>
+        <v>12.17877652746467</v>
       </c>
       <c r="R11">
-        <v>83.34559242204</v>
+        <v>109.608988747182</v>
       </c>
       <c r="S11">
-        <v>0.001128737444492849</v>
+        <v>0.001533821842573241</v>
       </c>
       <c r="T11">
-        <v>0.001128737444492849</v>
+        <v>0.001533821842573241</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>210.479298</v>
       </c>
       <c r="I12">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J12">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N12">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O12">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P12">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q12">
-        <v>2431.731642912834</v>
+        <v>3089.270653699217</v>
       </c>
       <c r="R12">
-        <v>21885.5847862155</v>
+        <v>27803.43588329296</v>
       </c>
       <c r="S12">
-        <v>0.2963933463659916</v>
+        <v>0.3890695256275299</v>
       </c>
       <c r="T12">
-        <v>0.2963933463659916</v>
+        <v>0.3890695256275301</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>210.479298</v>
       </c>
       <c r="I13">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223961</v>
       </c>
       <c r="J13">
-        <v>0.7366419882377957</v>
+        <v>0.7185606322223963</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N13">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O13">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P13">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q13">
-        <v>2088.092219461126</v>
+        <v>785.0318174333207</v>
       </c>
       <c r="R13">
-        <v>18792.82997515013</v>
+        <v>7065.286356899886</v>
       </c>
       <c r="S13">
-        <v>0.2545086100477487</v>
+        <v>0.09886862986432192</v>
       </c>
       <c r="T13">
-        <v>0.2545086100477487</v>
+        <v>0.09886862986432195</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H14">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I14">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J14">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N14">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O14">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P14">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q14">
-        <v>3.670117786437222</v>
+        <v>14.33857576682067</v>
       </c>
       <c r="R14">
-        <v>33.031060077935</v>
+        <v>129.047181901386</v>
       </c>
       <c r="S14">
-        <v>0.0004473349250727609</v>
+        <v>0.001805831698524423</v>
       </c>
       <c r="T14">
-        <v>0.0004473349250727609</v>
+        <v>0.001805831698524424</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H15">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I15">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J15">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>3.660776</v>
       </c>
       <c r="O15">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P15">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q15">
-        <v>3.493332512512889</v>
+        <v>7.537070424930667</v>
       </c>
       <c r="R15">
-        <v>31.439992612616</v>
+        <v>67.83363382437599</v>
       </c>
       <c r="S15">
-        <v>0.0004257873258220899</v>
+        <v>0.0009492351896515224</v>
       </c>
       <c r="T15">
-        <v>0.0004257873258220899</v>
+        <v>0.0009492351896515228</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H16">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I16">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J16">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N16">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O16">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P16">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q16">
-        <v>54.63895196397144</v>
+        <v>138.2625256378547</v>
       </c>
       <c r="R16">
-        <v>491.750567675743</v>
+        <v>1244.362730740692</v>
       </c>
       <c r="S16">
-        <v>0.006659707645673247</v>
+        <v>0.01741308590024947</v>
       </c>
       <c r="T16">
-        <v>0.006659707645673248</v>
+        <v>0.01741308590024948</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H17">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I17">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J17">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N17">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O17">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P17">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q17">
-        <v>0.3778679187977778</v>
+        <v>1.072176297434333</v>
       </c>
       <c r="R17">
-        <v>3.40081126918</v>
+        <v>9.649586676908999</v>
       </c>
       <c r="S17">
-        <v>4.605670089593876E-05</v>
+        <v>0.0001350322358231526</v>
       </c>
       <c r="T17">
-        <v>4.605670089593877E-05</v>
+        <v>0.0001350322358231526</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H18">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I18">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J18">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N18">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O18">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P18">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q18">
-        <v>99.22372778830555</v>
+        <v>271.9684332647246</v>
       </c>
       <c r="R18">
-        <v>893.0135500947499</v>
+        <v>2447.715899382522</v>
       </c>
       <c r="S18">
-        <v>0.01209395485879208</v>
+        <v>0.03425230132855541</v>
       </c>
       <c r="T18">
-        <v>0.01209395485879208</v>
+        <v>0.03425230132855542</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>2.862780333333333</v>
+        <v>6.176617</v>
       </c>
       <c r="H19">
-        <v>8.588341</v>
+        <v>18.529851</v>
       </c>
       <c r="I19">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083239</v>
       </c>
       <c r="J19">
-        <v>0.03005774273298925</v>
+        <v>0.06325952992083242</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N19">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O19">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P19">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q19">
-        <v>85.20195663223366</v>
+        <v>69.11141734850634</v>
       </c>
       <c r="R19">
-        <v>766.8176096901029</v>
+        <v>622.0027561365571</v>
       </c>
       <c r="S19">
-        <v>0.01038490127673313</v>
+        <v>0.008704043568028412</v>
       </c>
       <c r="T19">
-        <v>0.01038490127673313</v>
+        <v>0.008704043568028416</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H20">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I20">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J20">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N20">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O20">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P20">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q20">
-        <v>16.96660520287833</v>
+        <v>19.41061341538045</v>
       </c>
       <c r="R20">
-        <v>152.699446825905</v>
+        <v>174.695520738424</v>
       </c>
       <c r="S20">
-        <v>0.002067986781028211</v>
+        <v>0.002444615250728606</v>
       </c>
       <c r="T20">
-        <v>0.002067986781028211</v>
+        <v>0.002444615250728607</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H21">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I21">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J21">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>3.660776</v>
       </c>
       <c r="O21">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P21">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q21">
-        <v>16.14934370804534</v>
+        <v>10.20318633328711</v>
       </c>
       <c r="R21">
-        <v>145.344093372408</v>
+        <v>91.82867699958399</v>
       </c>
       <c r="S21">
-        <v>0.001968374280604657</v>
+        <v>0.001285011678024318</v>
       </c>
       <c r="T21">
-        <v>0.001968374280604656</v>
+        <v>0.001285011678024318</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H22">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I22">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J22">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N22">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O22">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P22">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q22">
-        <v>252.5906743640677</v>
+        <v>187.1706422335698</v>
       </c>
       <c r="R22">
-        <v>2273.316069276609</v>
+        <v>1684.535780102128</v>
       </c>
       <c r="S22">
-        <v>0.03078719457132635</v>
+        <v>0.02357268143469872</v>
       </c>
       <c r="T22">
-        <v>0.03078719457132635</v>
+        <v>0.02357268143469872</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H23">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I23">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J23">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N23">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O23">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P23">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q23">
-        <v>1.746847422926667</v>
+        <v>1.451441200372889</v>
       </c>
       <c r="R23">
-        <v>15.72162680634</v>
+        <v>13.062970803356</v>
       </c>
       <c r="S23">
-        <v>0.0002129157445399095</v>
+        <v>0.0001827976900078742</v>
       </c>
       <c r="T23">
-        <v>0.0002129157445399095</v>
+        <v>0.0001827976900078742</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H24">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I24">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J24">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N24">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O24">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P24">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q24">
-        <v>458.7018493965833</v>
+        <v>368.1728370473164</v>
       </c>
       <c r="R24">
-        <v>4128.31664456925</v>
+        <v>3313.555533425848</v>
       </c>
       <c r="S24">
-        <v>0.05590920220294878</v>
+        <v>0.04636849506449495</v>
       </c>
       <c r="T24">
-        <v>0.05590920220294877</v>
+        <v>0.04636849506449497</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>13.234361</v>
+        <v>8.361494666666667</v>
       </c>
       <c r="H25">
-        <v>39.703083</v>
+        <v>25.084484</v>
       </c>
       <c r="I25">
-        <v>0.1389540837421941</v>
+        <v>0.08563655833749777</v>
       </c>
       <c r="J25">
-        <v>0.1389540837421941</v>
+        <v>0.0856365583374978</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N25">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O25">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P25">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q25">
-        <v>393.880535941921</v>
+        <v>93.55845563442089</v>
       </c>
       <c r="R25">
-        <v>3544.924823477289</v>
+        <v>842.026100709788</v>
       </c>
       <c r="S25">
-        <v>0.04800841016174617</v>
+        <v>0.0117829572195433</v>
       </c>
       <c r="T25">
-        <v>0.04800841016174617</v>
+        <v>0.0117829572195433</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H26">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I26">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J26">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N26">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O26">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P26">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q26">
-        <v>0.6280241831966666</v>
+        <v>0.7477375902002222</v>
       </c>
       <c r="R26">
-        <v>5.65221764877</v>
+        <v>6.729638311802001</v>
       </c>
       <c r="S26">
-        <v>7.654717567167873E-05</v>
+        <v>9.417171304324248E-05</v>
       </c>
       <c r="T26">
-        <v>7.654717567167873E-05</v>
+        <v>9.417171304324251E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H27">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I27">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J27">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>3.660776</v>
       </c>
       <c r="O27">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P27">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q27">
-        <v>0.5977729940746667</v>
+        <v>0.3930481638035555</v>
       </c>
       <c r="R27">
-        <v>5.379956946672</v>
+        <v>3.537433474232</v>
       </c>
       <c r="S27">
-        <v>7.285998790095915E-05</v>
+        <v>4.950134830585489E-05</v>
       </c>
       <c r="T27">
-        <v>7.285998790095915E-05</v>
+        <v>4.950134830585491E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H28">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I28">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J28">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N28">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O28">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P28">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q28">
-        <v>9.349722590567332</v>
+        <v>7.210206189004889</v>
       </c>
       <c r="R28">
-        <v>84.14750331510599</v>
+        <v>64.89185570104401</v>
       </c>
       <c r="S28">
-        <v>0.001139597609089999</v>
+        <v>0.0009080691904652856</v>
       </c>
       <c r="T28">
-        <v>0.001139597609089999</v>
+        <v>0.0009080691904652861</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H29">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I29">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J29">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N29">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O29">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P29">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q29">
-        <v>0.06466010217333333</v>
+        <v>0.05591256300144444</v>
       </c>
       <c r="R29">
-        <v>0.5819409195599999</v>
+        <v>0.5032130670129999</v>
       </c>
       <c r="S29">
-        <v>7.881142689151643E-06</v>
+        <v>7.041750886262555E-06</v>
       </c>
       <c r="T29">
-        <v>7.881142689151643E-06</v>
+        <v>7.041750886262557E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H30">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I30">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J30">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N30">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O30">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P30">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q30">
-        <v>16.97899201716667</v>
+        <v>14.18279082992822</v>
       </c>
       <c r="R30">
-        <v>152.8109281545</v>
+        <v>127.645117469354</v>
       </c>
       <c r="S30">
-        <v>0.002069496556725884</v>
+        <v>0.001786211801697293</v>
       </c>
       <c r="T30">
-        <v>0.002069496556725884</v>
+        <v>0.001786211801697294</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.489874</v>
+        <v>0.3221023333333333</v>
       </c>
       <c r="H31">
-        <v>1.469622</v>
+        <v>0.966307</v>
       </c>
       <c r="I31">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189895</v>
       </c>
       <c r="J31">
-        <v>0.005143428747268084</v>
+        <v>0.003298900060189896</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N31">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O31">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P31">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q31">
-        <v>14.579610882914</v>
+        <v>3.604068179705445</v>
       </c>
       <c r="R31">
-        <v>131.216497946226</v>
+        <v>32.436613617349</v>
       </c>
       <c r="S31">
-        <v>0.001777046275190411</v>
+        <v>0.0004539042557919559</v>
       </c>
       <c r="T31">
-        <v>0.001777046275190411</v>
+        <v>0.0004539042557919561</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,22 +2397,22 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H32">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I32">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J32">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.282011666666667</v>
+        <v>2.321428666666667</v>
       </c>
       <c r="N32">
-        <v>3.846035</v>
+        <v>6.964286</v>
       </c>
       <c r="O32">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560363</v>
       </c>
       <c r="P32">
-        <v>0.0148825189252085</v>
+        <v>0.02854639768560362</v>
       </c>
       <c r="Q32">
-        <v>3.439859944359444</v>
+        <v>1.168596357466222</v>
       </c>
       <c r="R32">
-        <v>30.95873949923499</v>
+        <v>10.517367217196</v>
       </c>
       <c r="S32">
-        <v>0.0004192697836993914</v>
+        <v>0.0001471755897803929</v>
       </c>
       <c r="T32">
-        <v>0.0004192697836993914</v>
+        <v>0.000147175589780393</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,22 +2459,22 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H33">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I33">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J33">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>3.660776</v>
       </c>
       <c r="O33">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="P33">
-        <v>0.01416564542469039</v>
+        <v>0.01500541010721175</v>
       </c>
       <c r="Q33">
-        <v>3.274165920921778</v>
+        <v>0.6142725182595555</v>
       </c>
       <c r="R33">
-        <v>29.467493288296</v>
+        <v>5.528452664336</v>
       </c>
       <c r="S33">
-        <v>0.0003990740494280274</v>
+        <v>7.736282898977838E-05</v>
       </c>
       <c r="T33">
-        <v>0.0003990740494280274</v>
+        <v>7.736282898977842E-05</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,22 +2521,22 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H34">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I34">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J34">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>19.08597433333333</v>
+        <v>22.38483066666667</v>
       </c>
       <c r="N34">
-        <v>57.257923</v>
+        <v>67.154492</v>
       </c>
       <c r="O34">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="P34">
-        <v>0.221563798214429</v>
+        <v>0.2752642316824276</v>
       </c>
       <c r="Q34">
-        <v>51.21098373387588</v>
+        <v>11.26841929505689</v>
       </c>
       <c r="R34">
-        <v>460.8988536048829</v>
+        <v>101.415773655512</v>
       </c>
       <c r="S34">
-        <v>0.006241887292051791</v>
+        <v>0.00141916945491651</v>
       </c>
       <c r="T34">
-        <v>0.006241887292051791</v>
+        <v>0.00141916945491651</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,22 +2583,22 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H35">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I35">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J35">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.1319933333333333</v>
+        <v>0.1735863333333333</v>
       </c>
       <c r="N35">
-        <v>0.39598</v>
+        <v>0.520759</v>
       </c>
       <c r="O35">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="P35">
-        <v>0.001532274106710954</v>
+        <v>0.002134575391125128</v>
       </c>
       <c r="Q35">
-        <v>0.3541610361755555</v>
+        <v>0.08738255013044444</v>
       </c>
       <c r="R35">
-        <v>3.187449325579999</v>
+        <v>0.786442951174</v>
       </c>
       <c r="S35">
-        <v>4.31671705923854E-05</v>
+        <v>1.100515012715555E-05</v>
       </c>
       <c r="T35">
-        <v>4.31671705923854E-05</v>
+        <v>1.100515012715556E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,22 +2645,22 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H36">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I36">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J36">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>34.65991666666667</v>
+        <v>44.03194066666666</v>
       </c>
       <c r="N36">
-        <v>103.97975</v>
+        <v>132.095822</v>
       </c>
       <c r="O36">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="P36">
-        <v>0.4023573881187896</v>
+        <v>0.5414567792618954</v>
       </c>
       <c r="Q36">
-        <v>92.99857568886111</v>
+        <v>22.16547344921022</v>
       </c>
       <c r="R36">
-        <v>836.9871811997498</v>
+        <v>199.489261042892</v>
       </c>
       <c r="S36">
-        <v>0.01133519775343095</v>
+        <v>0.002791568369015259</v>
       </c>
       <c r="T36">
-        <v>0.01133519775343095</v>
+        <v>0.002791568369015261</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,22 +2707,22 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>2.683173666666666</v>
+        <v>0.5033953333333333</v>
       </c>
       <c r="H37">
-        <v>8.049520999999999</v>
+        <v>1.510186</v>
       </c>
       <c r="I37">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222492</v>
       </c>
       <c r="J37">
-        <v>0.02817196375199754</v>
+        <v>0.005155662420222495</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>29.761961</v>
+        <v>11.18920233333333</v>
       </c>
       <c r="N37">
-        <v>89.285883</v>
+        <v>33.567607</v>
       </c>
       <c r="O37">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="P37">
-        <v>0.3454983752101716</v>
+        <v>0.1375926058717365</v>
       </c>
       <c r="Q37">
-        <v>79.85651002356032</v>
+        <v>5.632592238322444</v>
       </c>
       <c r="R37">
-        <v>718.7085902120428</v>
+        <v>50.69333014490201</v>
       </c>
       <c r="S37">
-        <v>0.009733367702794999</v>
+        <v>0.0007093810273933964</v>
       </c>
       <c r="T37">
-        <v>0.009733367702794999</v>
+        <v>0.0007093810273933967</v>
       </c>
     </row>
   </sheetData>
